--- a/resources/3_course.xlsx
+++ b/resources/3_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/go/src/ImsitTgBotARM/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51F4C8A-F7D7-A648-97B0-6DA9AC2E785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44B675D-98B6-B343-82DD-BD866FE18997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1040" windowWidth="16360" windowHeight="21040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="1040" windowWidth="16360" windowHeight="21040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1week" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="203">
   <si>
     <t xml:space="preserve">Дни </t>
   </si>
@@ -1237,52 +1237,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,26 +1258,59 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L85"/>
+    <sheetView zoomScale="94" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -1533,34 +1533,34 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1568,37 +1568,37 @@
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" s="21" t="s">
+      <c r="H2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="26" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1606,53 +1606,55 @@
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="B3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="55.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="E4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="H4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="28" t="s">
+      <c r="K4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1660,53 +1662,55 @@
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="35"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="51" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="E6" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1714,55 +1718,57 @@
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="20"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="40" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="27" t="s">
+      <c r="I8" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1770,53 +1776,55 @@
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="69.25" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="C10" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="27" t="s">
+      <c r="G10" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" s="27" t="s">
+      <c r="I10" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1824,53 +1832,55 @@
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="29"/>
+      <c r="B11" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="29"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H12" s="28" t="s">
+      <c r="G12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L12" s="27" t="s">
+      <c r="I12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L12" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1878,55 +1888,57 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="27" t="s">
+      <c r="C14" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L14" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1934,53 +1946,55 @@
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L16" s="20" t="s">
+      <c r="D16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L16" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1988,17 +2002,19 @@
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="23" t="s">
+      <c r="B17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="17" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2006,37 +2022,37 @@
       <c r="A18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="28" t="s">
+      <c r="D18" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2044,57 +2060,59 @@
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="B19" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" s="28" t="s">
+      <c r="E20" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="L20" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2102,13 +2120,15 @@
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="B21" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -2118,37 +2138,37 @@
       <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2156,53 +2176,55 @@
       <c r="A23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="23"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="29"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="27" t="s">
+      <c r="C24" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" s="27" t="s">
+      <c r="G24" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2210,53 +2232,55 @@
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="25"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="29"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="23"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="29"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="27" t="s">
+      <c r="C26" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" s="27" t="s">
+      <c r="G26" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2264,53 +2288,55 @@
       <c r="A27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="29"/>
+      <c r="B27" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L28" s="27" t="s">
+      <c r="C28" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2318,53 +2344,55 @@
       <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" ht="42" customHeight="1" thickTop="1">
       <c r="A30" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L30" s="21" t="s">
+      <c r="F30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30" s="26" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2372,53 +2400,55 @@
       <c r="A31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="20"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L32" s="27" t="s">
+      <c r="H32" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L32" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2426,55 +2456,57 @@
       <c r="A33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="23"/>
+      <c r="B33" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
+      <c r="G33" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
       <c r="L33" s="25"/>
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" ht="69.25" customHeight="1">
       <c r="A34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="28" t="s">
+      <c r="J34" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="L34" s="23" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2482,55 +2514,57 @@
       <c r="A35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+      <c r="B35" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="23"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="25"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="K35" s="23"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="K35" s="17"/>
       <c r="L35" s="25"/>
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" ht="96.25" customHeight="1">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G36" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="28" t="s">
+      <c r="J36" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="K36" s="27" t="s">
+      <c r="K36" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="L36" s="27" t="s">
+      <c r="L36" s="23" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2538,15 +2572,17 @@
       <c r="A37" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="35"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="23"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
     </row>
@@ -2554,37 +2590,37 @@
       <c r="A38" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F38" s="28" t="s">
+      <c r="C38" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H38" s="27" t="s">
+      <c r="G38" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="I38" s="28" t="s">
+      <c r="I38" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K38" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="23" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2592,14 +2628,16 @@
       <c r="A39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="29"/>
+      <c r="B39" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="25"/>
-      <c r="I39" s="23"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -2608,37 +2646,37 @@
       <c r="A40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J40" s="27" t="s">
+      <c r="C40" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="K40" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="L40" s="27" t="s">
+      <c r="L40" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2646,53 +2684,55 @@
       <c r="A41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="B41" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="29"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L42" s="27" t="s">
+      <c r="C42" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L42" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2700,53 +2740,55 @@
       <c r="A43" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
     </row>
     <row r="44" spans="1:12" s="4" customFormat="1" ht="55.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A44" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44" s="20" t="s">
+      <c r="E44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L44" s="20" t="s">
+      <c r="H44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L44" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2754,55 +2796,57 @@
       <c r="A45" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="23"/>
+      <c r="B45" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="17"/>
     </row>
     <row r="46" spans="1:12" s="4" customFormat="1" ht="69.25" customHeight="1" thickBot="1">
       <c r="A46" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" s="28" t="s">
+      <c r="E46" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H46" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K46" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="L46" s="28" t="s">
+      <c r="H46" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L46" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2810,53 +2854,55 @@
       <c r="A47" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
+      <c r="B47" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
     </row>
     <row r="48" spans="1:12" s="4" customFormat="1" ht="69.25" customHeight="1" thickBot="1">
       <c r="A48" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48" s="28" t="s">
+      <c r="E48" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H48" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K48" s="28" t="s">
+      <c r="H48" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K48" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="L48" s="28" t="s">
+      <c r="L48" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2864,55 +2910,57 @@
       <c r="A49" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
+      <c r="B49" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
     </row>
     <row r="50" spans="1:12" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A50" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G50" s="28" t="s">
+      <c r="D50" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="I50" s="28" t="s">
+      <c r="I50" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J50" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="K50" s="28" t="s">
+      <c r="J50" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K50" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="L50" s="28" t="s">
+      <c r="L50" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2920,17 +2968,19 @@
       <c r="A51" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="23"/>
+      <c r="B51" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="25"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23" t="s">
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2938,37 +2988,37 @@
       <c r="A52" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H52" s="27" t="s">
+      <c r="C52" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H52" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="I52" s="28" t="s">
+      <c r="I52" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="J52" s="27" t="s">
+      <c r="J52" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K52" s="27" t="s">
+      <c r="K52" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="L52" s="27" t="s">
+      <c r="L52" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2976,53 +3026,55 @@
       <c r="A53" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
+      <c r="B53" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="25"/>
-      <c r="I53" s="23"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="29"/>
+      <c r="L53" s="24"/>
     </row>
     <row r="54" spans="1:12" s="4" customFormat="1" ht="69.25" customHeight="1" thickBot="1">
       <c r="A54" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G54" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H54" s="28" t="s">
+      <c r="C54" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="28" t="s">
+      <c r="I54" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J54" s="28" t="s">
+      <c r="J54" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="K54" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L54" s="27" t="s">
+      <c r="K54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L54" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3030,53 +3082,55 @@
       <c r="A55" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
+      <c r="B55" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
     </row>
     <row r="56" spans="1:12" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A56" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H56" s="28" t="s">
+      <c r="C56" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H56" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="I56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J56" s="28" t="s">
+      <c r="I56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J56" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="K56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L56" s="27" t="s">
+      <c r="K56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L56" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3084,55 +3138,57 @@
       <c r="A57" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="16"/>
+      <c r="B57" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="C57" s="33"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
     </row>
     <row r="58" spans="1:12" s="4" customFormat="1" ht="55.5" customHeight="1" thickTop="1">
       <c r="A58" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L58" s="21" t="s">
+      <c r="D58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L58" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3140,55 +3196,57 @@
       <c r="A59" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
+      <c r="B59" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
       <c r="L59" s="25"/>
     </row>
     <row r="60" spans="1:12" s="4" customFormat="1" ht="69.25" customHeight="1">
       <c r="A60" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I60" s="28" t="s">
+      <c r="E60" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I60" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="J60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L60" s="27" t="s">
+      <c r="J60" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L60" s="23" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3196,55 +3254,57 @@
       <c r="A61" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
+      <c r="B61" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
       <c r="L61" s="25"/>
     </row>
     <row r="62" spans="1:12" s="4" customFormat="1" ht="82.75" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62" s="28" t="s">
+      <c r="E62" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="H62" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I62" s="27" t="s">
+      <c r="H62" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I62" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="J62" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K62" s="27" t="s">
+      <c r="J62" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K62" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="L62" s="27" t="s">
+      <c r="L62" s="23" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3252,15 +3312,17 @@
       <c r="A63" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="29"/>
+      <c r="B63" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="24"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="29"/>
+      <c r="J63" s="24"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
     </row>
@@ -3268,37 +3330,37 @@
       <c r="A64" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G64" s="28" t="s">
+      <c r="F64" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H64" s="27" t="s">
+      <c r="H64" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I64" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K64" s="27" t="s">
+      <c r="I64" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K64" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="L64" s="27" t="s">
+      <c r="L64" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3306,17 +3368,19 @@
       <c r="A65" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="23"/>
+      <c r="B65" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="17"/>
       <c r="E65" s="25"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="23"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="17"/>
       <c r="H65" s="25"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
     </row>
@@ -3324,37 +3388,37 @@
       <c r="A66" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="27" t="s">
+      <c r="C66" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G66" s="28" t="s">
+      <c r="G66" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H66" s="27" t="s">
+      <c r="H66" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="I66" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J66" s="27" t="s">
+      <c r="I66" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J66" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="K66" s="27" t="s">
+      <c r="K66" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="L66" s="27" t="s">
+      <c r="L66" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3362,53 +3426,55 @@
       <c r="A67" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="32"/>
+      <c r="B67" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="29"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="23"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="25"/>
-      <c r="I67" s="29"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="29"/>
+      <c r="L67" s="24"/>
     </row>
     <row r="68" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A68" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E68" s="27" t="s">
+      <c r="C68" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G68" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H68" s="28" t="s">
+      <c r="G68" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H68" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="I68" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J68" s="27" t="s">
+      <c r="I68" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J68" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K68" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L68" s="27" t="s">
+      <c r="K68" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L68" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3416,53 +3482,55 @@
       <c r="A69" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="23"/>
+      <c r="B69" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="29"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="24"/>
       <c r="J69" s="25"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
     </row>
     <row r="70" spans="1:12" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="A70" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F70" s="27" t="s">
+      <c r="C70" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G70" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H70" s="28" t="s">
+      <c r="G70" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H70" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="I70" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J70" s="28" t="s">
+      <c r="I70" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J70" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="K70" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L70" s="27" t="s">
+      <c r="K70" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L70" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3470,53 +3538,55 @@
       <c r="A71" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="16"/>
+      <c r="B71" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="C71" s="33"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
     </row>
     <row r="72" spans="1:12" s="4" customFormat="1" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A72" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E72" s="20" t="s">
+      <c r="C72" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L72" s="21" t="s">
+      <c r="G72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L72" s="26" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3524,53 +3594,55 @@
       <c r="A73" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
+      <c r="B73" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
     </row>
     <row r="74" spans="1:12" s="4" customFormat="1" ht="82.75" customHeight="1" thickBot="1">
       <c r="A74" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E74" s="28" t="s">
+      <c r="C74" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G74" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I74" s="28" t="s">
+      <c r="G74" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I74" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="J74" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K74" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L74" s="27" t="s">
+      <c r="J74" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L74" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3578,53 +3650,55 @@
       <c r="A75" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
+      <c r="B75" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
     </row>
     <row r="76" spans="1:12" s="4" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A76" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E76" s="27" t="s">
+      <c r="C76" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G76" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I76" s="27" t="s">
+      <c r="F76" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I76" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J76" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K76" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L76" s="27" t="s">
+      <c r="J76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L76" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3632,53 +3706,55 @@
       <c r="A77" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="29"/>
+      <c r="B77" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="25"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
     </row>
     <row r="78" spans="1:12" s="4" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A78" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I78" s="28" t="s">
+      <c r="C78" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I78" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="J78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L78" s="27" t="s">
+      <c r="J78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L78" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3686,53 +3762,55 @@
       <c r="A79" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
+      <c r="B79" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
     </row>
     <row r="80" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I80" s="27" t="s">
+      <c r="C80" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I80" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="J80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L80" s="27" t="s">
+      <c r="J80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L80" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3740,53 +3818,55 @@
       <c r="A81" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
+      <c r="B81" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
     </row>
     <row r="82" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L82" s="27" t="s">
+      <c r="C82" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L82" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3794,53 +3874,55 @@
       <c r="A83" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
+      <c r="B83" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
     </row>
     <row r="84" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L84" s="27" t="s">
+      <c r="C84" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L84" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3848,17 +3930,19 @@
       <c r="A85" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
+      <c r="B85" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
     </row>
     <row r="86" spans="1:12" s="4" customFormat="1">
       <c r="A86" s="5"/>
@@ -4154,31 +4238,288 @@
       <c r="D127" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="364">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
+  <mergeCells count="322">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="K70:K71"/>
     <mergeCell ref="L78:L79"/>
     <mergeCell ref="K80:K81"/>
     <mergeCell ref="L80:L81"/>
-    <mergeCell ref="B82:B83"/>
     <mergeCell ref="C82:C83"/>
     <mergeCell ref="D82:D83"/>
     <mergeCell ref="E82:E83"/>
@@ -4189,7 +4530,6 @@
     <mergeCell ref="J82:J83"/>
     <mergeCell ref="K82:K83"/>
     <mergeCell ref="L82:L83"/>
-    <mergeCell ref="B80:B81"/>
     <mergeCell ref="C80:C81"/>
     <mergeCell ref="D80:D81"/>
     <mergeCell ref="E80:E81"/>
@@ -4199,326 +4539,28 @@
     <mergeCell ref="I80:I81"/>
     <mergeCell ref="J80:J81"/>
     <mergeCell ref="H78:H79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
     <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="B32:B33"/>
     <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4530,8 +4572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L85"/>
+    <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -4555,34 +4597,34 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4590,35 +4632,35 @@
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" s="21" t="s">
+      <c r="H2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="26" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4626,71 +4668,75 @@
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="113.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="28"/>
+      <c r="E4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="35" customHeight="1" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="35"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="23" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="23" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="23" t="s">
+      <c r="K5" s="24"/>
+      <c r="L5" s="17" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4698,53 +4744,55 @@
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="E6" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="I6" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="188" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="K7" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4752,33 +4800,33 @@
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="27" t="s">
+      <c r="I8" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="27" t="s">
+      <c r="K8" s="18"/>
+      <c r="L8" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4786,8 +4834,10 @@
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="25"/>
@@ -4795,9 +4845,9 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="25"/>
@@ -4806,33 +4856,33 @@
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" s="27" t="s">
+      <c r="I10" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4840,55 +4890,57 @@
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="23" t="s">
+      <c r="B11" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="29"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L12" s="27" t="s">
+      <c r="G12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L12" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4896,55 +4948,57 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="27" t="s">
+      <c r="C14" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L14" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4952,71 +5006,75 @@
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="99.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="120" thickBot="1">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="23" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="23" t="s">
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="17" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5024,25 +5082,25 @@
       <c r="A18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="27" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5050,28 +5108,30 @@
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="23" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="J19" s="23" t="s">
+      <c r="H19" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="17" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="25"/>
@@ -5080,31 +5140,31 @@
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27" t="s">
+      <c r="C20" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="L20" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5112,17 +5172,19 @@
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="23" t="s">
+      <c r="B21" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="23" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="17" t="s">
         <v>175</v>
       </c>
       <c r="I21" s="25"/>
@@ -5134,33 +5196,33 @@
       <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27" t="s">
+      <c r="C22" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="27" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5168,53 +5230,55 @@
       <c r="A23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="23" t="s">
+      <c r="B23" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="17" t="s">
         <v>188</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="17" t="s">
         <v>174</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="29"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" ht="113.5" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="27" t="s">
+      <c r="C24" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" s="27" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="27" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5222,57 +5286,59 @@
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="23" t="s">
+      <c r="B25" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="17" t="s">
         <v>119</v>
       </c>
       <c r="E25" s="25"/>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="17" t="s">
         <v>62</v>
       </c>
       <c r="K25" s="25"/>
-      <c r="L25" s="29"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12" ht="188" customHeight="1" thickBot="1">
       <c r="A26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="27" t="s">
+      <c r="C26" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" s="27" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5280,59 +5346,61 @@
       <c r="A27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="29"/>
+      <c r="B27" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="23" t="s">
+      <c r="G27" s="24"/>
+      <c r="H27" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L28" s="27" t="s">
+      <c r="C28" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5340,51 +5408,53 @@
       <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="85.5" customHeight="1" thickTop="1">
       <c r="A30" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L30" s="21" t="s">
+      <c r="F30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30" s="26" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5392,49 +5462,51 @@
       <c r="A31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>121</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" ht="85.5" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L32" s="27" t="s">
+      <c r="G32" s="18"/>
+      <c r="H32" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L32" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5442,47 +5514,49 @@
       <c r="A33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="31" t="s">
+      <c r="B33" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="17" t="s">
         <v>122</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
+      <c r="G33" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
       <c r="L33" s="25"/>
     </row>
     <row r="34" spans="1:12" ht="113.5" customHeight="1">
       <c r="A34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="27" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="27" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="27" t="s">
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="23" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5490,26 +5564,28 @@
       <c r="A35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="F35" s="25"/>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="17" t="s">
         <v>125</v>
       </c>
       <c r="H35" s="25"/>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="J35" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="K35" s="23" t="s">
+      <c r="J35" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="K35" s="17" t="s">
         <v>169</v>
       </c>
       <c r="L35" s="25"/>
@@ -5518,31 +5594,31 @@
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="27" t="s">
+      <c r="G36" s="18"/>
+      <c r="H36" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="27" t="s">
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="L36" s="27" t="s">
+      <c r="L36" s="23" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5550,19 +5626,21 @@
       <c r="A37" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="35"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="17" t="s">
         <v>126</v>
       </c>
       <c r="H37" s="25"/>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="17" t="s">
         <v>128</v>
       </c>
       <c r="K37" s="25"/>
@@ -5572,33 +5650,33 @@
       <c r="A38" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H38" s="27" t="s">
+      <c r="C38" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="27" t="s">
+      <c r="I38" s="18"/>
+      <c r="J38" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K38" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="23" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5606,16 +5684,18 @@
       <c r="A39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="23" t="s">
+      <c r="B39" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="29"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="25"/>
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="17" t="s">
         <v>129</v>
       </c>
       <c r="J39" s="25"/>
@@ -5626,37 +5706,37 @@
       <c r="A40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J40" s="27" t="s">
+      <c r="C40" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="K40" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="L40" s="27" t="s">
+      <c r="L40" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5664,53 +5744,55 @@
       <c r="A41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="B41" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="29"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L42" s="27" t="s">
+      <c r="C42" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L42" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5718,69 +5800,73 @@
       <c r="A43" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
     </row>
     <row r="44" spans="1:12" ht="99.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A44" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L44" s="16"/>
     </row>
     <row r="45" spans="1:12" ht="205" thickBot="1">
       <c r="A45" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="23" t="s">
+      <c r="B45" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="23" t="s">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="23" t="s">
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="17" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5788,55 +5874,57 @@
       <c r="A46" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K46" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="L46" s="28"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:12" ht="205" thickBot="1">
       <c r="A47" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="31" t="s">
+      <c r="B47" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="23" t="s">
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="23" t="s">
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="L47" s="23" t="s">
+      <c r="L47" s="17" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5844,53 +5932,55 @@
       <c r="A48" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48" s="28"/>
-      <c r="H48" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
     </row>
     <row r="49" spans="1:12" ht="120" thickBot="1">
       <c r="A49" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="23" t="s">
+      <c r="B49" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="23" t="s">
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="L49" s="23" t="s">
+      <c r="L49" s="17" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5898,55 +5988,57 @@
       <c r="A50" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="27" t="s">
+      <c r="D50" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="18"/>
+      <c r="H50" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A51" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="23" t="s">
+      <c r="B51" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="17" t="s">
         <v>191</v>
       </c>
       <c r="H51" s="25"/>
-      <c r="I51" s="23" t="s">
+      <c r="I51" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="J51" s="23" t="s">
+      <c r="J51" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K51" s="23" t="s">
+      <c r="K51" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L51" s="23" t="s">
+      <c r="L51" s="17" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5954,35 +6046,35 @@
       <c r="A52" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H52" s="27" t="s">
+      <c r="C52" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H52" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="I52" s="28"/>
-      <c r="J52" s="27" t="s">
+      <c r="I52" s="18"/>
+      <c r="J52" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K52" s="27" t="s">
+      <c r="K52" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="L52" s="27" t="s">
+      <c r="L52" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5990,49 +6082,51 @@
       <c r="A53" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
+      <c r="B53" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="25"/>
-      <c r="I53" s="23" t="s">
+      <c r="I53" s="17" t="s">
         <v>138</v>
       </c>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="29"/>
+      <c r="L53" s="24"/>
     </row>
     <row r="54" spans="1:12" ht="141.25" customHeight="1" thickBot="1">
       <c r="A54" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G54" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L54" s="27" t="s">
+      <c r="C54" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L54" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6040,55 +6134,57 @@
       <c r="A55" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="23" t="s">
+      <c r="B55" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="23" t="s">
+      <c r="I55" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="J55" s="23" t="s">
+      <c r="J55" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A56" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H56" s="28"/>
-      <c r="I56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J56" s="28"/>
-      <c r="K56" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L56" s="27" t="s">
+      <c r="C56" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L56" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6096,55 +6192,57 @@
       <c r="A57" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="16"/>
+      <c r="B57" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="C57" s="33"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="36" t="s">
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="I57" s="34"/>
-      <c r="J57" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="A58" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K58" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L58" s="21" t="s">
+      <c r="C58" s="21"/>
+      <c r="D58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L58" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6152,51 +6250,53 @@
       <c r="A59" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="23" t="s">
+      <c r="B59" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
       <c r="L59" s="25"/>
     </row>
     <row r="60" spans="1:12" ht="127.25" customHeight="1">
       <c r="A60" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I60" s="28"/>
-      <c r="J60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L60" s="27" t="s">
+      <c r="C60" s="19"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I60" s="18"/>
+      <c r="J60" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L60" s="23" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6204,55 +6304,57 @@
       <c r="A61" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="31" t="s">
+      <c r="B61" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D61" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="23" t="s">
+      <c r="D61" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H61" s="29"/>
-      <c r="I61" s="23" t="s">
+      <c r="H61" s="24"/>
+      <c r="I61" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
       <c r="L61" s="25"/>
     </row>
     <row r="62" spans="1:12" ht="141.25" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I62" s="27" t="s">
+      <c r="C62" s="19"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="18"/>
+      <c r="H62" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I62" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="J62" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K62" s="27" t="s">
+      <c r="J62" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K62" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="L62" s="27" t="s">
+      <c r="L62" s="23" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6260,21 +6362,23 @@
       <c r="A63" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="31" t="s">
+      <c r="B63" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="23" t="s">
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H63" s="29"/>
+      <c r="H63" s="24"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="29"/>
+      <c r="J63" s="24"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
     </row>
@@ -6282,31 +6386,31 @@
       <c r="A64" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="27" t="s">
+      <c r="C64" s="19"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="27" t="s">
+      <c r="F64" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I64" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K64" s="27" t="s">
+      <c r="I64" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K64" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="L64" s="27" t="s">
+      <c r="L64" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6314,21 +6418,23 @@
       <c r="A65" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="23" t="s">
+      <c r="B65" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>142</v>
       </c>
       <c r="E65" s="25"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="23" t="s">
+      <c r="F65" s="24"/>
+      <c r="G65" s="17" t="s">
         <v>143</v>
       </c>
       <c r="H65" s="25"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
     </row>
@@ -6336,35 +6442,35 @@
       <c r="A66" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="27" t="s">
+      <c r="C66" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="27" t="s">
+      <c r="G66" s="18"/>
+      <c r="H66" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="I66" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J66" s="27" t="s">
+      <c r="I66" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J66" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="K66" s="27" t="s">
+      <c r="K66" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="L66" s="27" t="s">
+      <c r="L66" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6372,53 +6478,55 @@
       <c r="A67" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="32"/>
+      <c r="B67" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="29"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="23" t="s">
+      <c r="G67" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H67" s="25"/>
-      <c r="I67" s="29"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="29"/>
+      <c r="L67" s="24"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E68" s="27" t="s">
+      <c r="C68" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G68" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H68" s="28"/>
-      <c r="I68" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J68" s="27" t="s">
+      <c r="G68" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H68" s="18"/>
+      <c r="I68" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J68" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K68" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L68" s="27" t="s">
+      <c r="K68" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L68" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6426,53 +6534,55 @@
       <c r="A69" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="23" t="s">
+      <c r="B69" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="17" t="s">
         <v>192</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="23" t="s">
+      <c r="G69" s="24"/>
+      <c r="H69" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="I69" s="29"/>
+      <c r="I69" s="24"/>
       <c r="J69" s="25"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
     </row>
     <row r="70" spans="1:12" ht="118" customHeight="1">
       <c r="A70" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F70" s="27" t="s">
+      <c r="C70" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G70" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H70" s="28"/>
-      <c r="I70" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J70" s="28"/>
-      <c r="K70" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L70" s="27" t="s">
+      <c r="G70" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H70" s="18"/>
+      <c r="I70" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J70" s="18"/>
+      <c r="K70" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L70" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6480,53 +6590,55 @@
       <c r="A71" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="16"/>
+      <c r="B71" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="C71" s="33"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="36" t="s">
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="I71" s="34"/>
-      <c r="J71" s="36" t="s">
+      <c r="I71" s="30"/>
+      <c r="J71" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A72" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K72" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L72" s="21" t="s">
+      <c r="C72" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K72" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L72" s="26" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6534,51 +6646,53 @@
       <c r="A73" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="23" t="s">
+      <c r="B73" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
     </row>
     <row r="74" spans="1:12" ht="206" customHeight="1" thickBot="1">
       <c r="A74" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I74" s="28"/>
-      <c r="J74" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K74" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L74" s="27" t="s">
+      <c r="C74" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I74" s="18"/>
+      <c r="J74" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L74" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6586,59 +6700,61 @@
       <c r="A75" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="23" t="s">
+      <c r="B75" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="23" t="s">
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
     </row>
     <row r="76" spans="1:12" ht="127.25" customHeight="1" thickBot="1">
       <c r="A76" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E76" s="27" t="s">
+      <c r="C76" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G76" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I76" s="27" t="s">
+      <c r="F76" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I76" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J76" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K76" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L76" s="27" t="s">
+      <c r="J76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L76" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6646,53 +6762,55 @@
       <c r="A77" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="29"/>
+      <c r="B77" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="25"/>
-      <c r="F77" s="23" t="s">
+      <c r="F77" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
     </row>
     <row r="78" spans="1:12" ht="43.75" customHeight="1" thickBot="1">
       <c r="A78" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I78" s="28"/>
-      <c r="J78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K78" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L78" s="27" t="s">
+      <c r="C78" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I78" s="18"/>
+      <c r="J78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K78" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L78" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6700,57 +6818,59 @@
       <c r="A79" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="23" t="s">
+      <c r="B79" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="23" t="s">
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
     </row>
     <row r="80" spans="1:12" ht="126" customHeight="1" thickBot="1">
       <c r="A80" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I80" s="27" t="s">
+      <c r="C80" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I80" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="J80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L80" s="27" t="s">
+      <c r="J80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K80" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L80" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6758,53 +6878,55 @@
       <c r="A81" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
+      <c r="B81" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
     </row>
     <row r="82" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L82" s="27" t="s">
+      <c r="C82" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K82" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L82" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6812,53 +6934,55 @@
       <c r="A83" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
+      <c r="B83" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K84" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L84" s="27" t="s">
+      <c r="C84" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L84" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6866,316 +6990,61 @@
       <c r="A85" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
+      <c r="B85" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="364">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="B16:B17"/>
+  <mergeCells count="322">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
@@ -7191,59 +7060,274 @@
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
